--- a/embd_prep_oov.xlsx
+++ b/embd_prep_oov.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\21_dementia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939CE542-85A6-4921-B0B6-420E30208154}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A172DD-DB5F-42BF-95CD-8FDEFB4B25A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="-12165" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="-14850" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
     <sheet name="1-2" sheetId="2" r:id="rId2"/>
+    <sheet name="1-3" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-2'!$A$2:$B$228</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1011">
   <si>
     <t>Control</t>
   </si>
@@ -2717,13 +2721,364 @@
   </si>
   <si>
     <t>split overflowing (overflow) -&gt; over and flowing (flow)</t>
+  </si>
+  <si>
+    <t>Fixed '\([:alpha:]\)' problem</t>
+  </si>
+  <si>
+    <t>Check commit on 1/26/2021</t>
+  </si>
+  <si>
+    <t>Changed to cased-BERT</t>
+  </si>
+  <si>
+    <t>Check commit on 1/28/2021</t>
+  </si>
+  <si>
+    <t>control group</t>
+  </si>
+  <si>
+    <t>% of words in BERT vocab: 78.64%</t>
+  </si>
+  <si>
+    <t>% of word counts in BERT vocab: 91.16%</t>
+  </si>
+  <si>
+    <t>experimental group</t>
+  </si>
+  <si>
+    <t>% of words in BERT vocab: 76.65%</t>
+  </si>
+  <si>
+    <t>% of word counts in BERT vocab: 90.25%</t>
+  </si>
+  <si>
+    <t>'cupboard'</t>
+  </si>
+  <si>
+    <t>'tipping'</t>
+  </si>
+  <si>
+    <t>'puddle'</t>
+  </si>
+  <si>
+    <t>'sleeveless'</t>
+  </si>
+  <si>
+    <t>'summertime'</t>
+  </si>
+  <si>
+    <t>'hm'</t>
+  </si>
+  <si>
+    <t>'mama'</t>
+  </si>
+  <si>
+    <t>'hedges'</t>
+  </si>
+  <si>
+    <t>'recessed'</t>
+  </si>
+  <si>
+    <t>'sandals'</t>
+  </si>
+  <si>
+    <t>'catastrophe'</t>
+  </si>
+  <si>
+    <t>'valance'</t>
+  </si>
+  <si>
+    <t>'landscaping'</t>
+  </si>
+  <si>
+    <t>'l@l'</t>
+  </si>
+  <si>
+    <t>'daze'</t>
+  </si>
+  <si>
+    <t>'ruffled'</t>
+  </si>
+  <si>
+    <t>'bloom'</t>
+  </si>
+  <si>
+    <t>'sloppy'</t>
+  </si>
+  <si>
+    <t>'anyhow'</t>
+  </si>
+  <si>
+    <t>'slip+on'</t>
+  </si>
+  <si>
+    <t>'mommy'</t>
+  </si>
+  <si>
+    <t>'p@l'</t>
+  </si>
+  <si>
+    <t>'billowing'</t>
+  </si>
+  <si>
+    <t>'reacting'</t>
+  </si>
+  <si>
+    <t>'tidy'</t>
+  </si>
+  <si>
+    <t>'sill'</t>
+  </si>
+  <si>
+    <t>'tumbles'</t>
+  </si>
+  <si>
+    <t>'tripod'</t>
+  </si>
+  <si>
+    <t>'cockeyed'</t>
+  </si>
+  <si>
+    <t>'sash'</t>
+  </si>
+  <si>
+    <t>'pompadour'</t>
+  </si>
+  <si>
+    <t>'waisted'</t>
+  </si>
+  <si>
+    <t>'ssh'</t>
+  </si>
+  <si>
+    <t>'presuming'</t>
+  </si>
+  <si>
+    <t>'plum'</t>
+  </si>
+  <si>
+    <t>'pudding'</t>
+  </si>
+  <si>
+    <t>'stools'</t>
+  </si>
+  <si>
+    <t>'engrossed'</t>
+  </si>
+  <si>
+    <t>'geese'</t>
+  </si>
+  <si>
+    <t>'goody'</t>
+  </si>
+  <si>
+    <t>'fortunately'</t>
+  </si>
+  <si>
+    <t>'okey_dokey'</t>
+  </si>
+  <si>
+    <t>'slop'</t>
+  </si>
+  <si>
+    <t>'ajar'</t>
+  </si>
+  <si>
+    <t>'wow'</t>
+  </si>
+  <si>
+    <t>'day+dreaming'</t>
+  </si>
+  <si>
+    <t>'upend'</t>
+  </si>
+  <si>
+    <t>'fiddling'</t>
+  </si>
+  <si>
+    <t>'kiddos'</t>
+  </si>
+  <si>
+    <t>'bemused'</t>
+  </si>
+  <si>
+    <t>'miniskirt'</t>
+  </si>
+  <si>
+    <t>'snowy'</t>
+  </si>
+  <si>
+    <t>'snowing'</t>
+  </si>
+  <si>
+    <t>'alrightie'</t>
+  </si>
+  <si>
+    <t>'upraised'</t>
+  </si>
+  <si>
+    <t>'brisk'</t>
+  </si>
+  <si>
+    <t>'pompoms'</t>
+  </si>
+  <si>
+    <t>'tippy'</t>
+  </si>
+  <si>
+    <t>'casement'</t>
+  </si>
+  <si>
+    <t>'sneakers'</t>
+  </si>
+  <si>
+    <t>'splash@o'</t>
+  </si>
+  <si>
+    <t>'x@l'</t>
+  </si>
+  <si>
+    <t>'scallop'</t>
+  </si>
+  <si>
+    <t>'impervious'</t>
+  </si>
+  <si>
+    <t>'Dave_Branton'</t>
+  </si>
+  <si>
+    <t>'The_window_of_the_xxx'</t>
+  </si>
+  <si>
+    <t>'lids'</t>
+  </si>
+  <si>
+    <t>'neglecting'</t>
+  </si>
+  <si>
+    <t>'cautioning'</t>
+  </si>
+  <si>
+    <t>'yep'</t>
+  </si>
+  <si>
+    <t>'culprit'</t>
+  </si>
+  <si>
+    <t>'overflows'</t>
+  </si>
+  <si>
+    <t>'inattentive'</t>
+  </si>
+  <si>
+    <t>'nondescript'</t>
+  </si>
+  <si>
+    <t>'fluttering'</t>
+  </si>
+  <si>
+    <t>'daft'</t>
+  </si>
+  <si>
+    <t>'attentively'</t>
+  </si>
+  <si>
+    <t>'ruffling'</t>
+  </si>
+  <si>
+    <t>'admonishing'</t>
+  </si>
+  <si>
+    <t>'blooming'</t>
+  </si>
+  <si>
+    <t>'Sissy'</t>
+  </si>
+  <si>
+    <t>'drooping'</t>
+  </si>
+  <si>
+    <t>'groomed'</t>
+  </si>
+  <si>
+    <t>'hairdo'</t>
+  </si>
+  <si>
+    <t>'nuthouse'</t>
+  </si>
+  <si>
+    <t>'careless'</t>
+  </si>
+  <si>
+    <t>'jogging'</t>
+  </si>
+  <si>
+    <t>'protrude'</t>
+  </si>
+  <si>
+    <t>'snickering'</t>
+  </si>
+  <si>
+    <t>'windowsills'</t>
+  </si>
+  <si>
+    <t>'fouled'</t>
+  </si>
+  <si>
+    <t>'torrent'</t>
+  </si>
+  <si>
+    <t>'untied'</t>
+  </si>
+  <si>
+    <t>'is:'</t>
+  </si>
+  <si>
+    <t>'Cookie_jar'</t>
+  </si>
+  <si>
+    <t>'s:tanding'</t>
+  </si>
+  <si>
+    <t>'gushing'</t>
+  </si>
+  <si>
+    <t>'puffed'</t>
+  </si>
+  <si>
+    <t>'prong'</t>
+  </si>
+  <si>
+    <t>'toying'</t>
+  </si>
+  <si>
+    <t>'overturning'</t>
+  </si>
+  <si>
+    <t>'a::nd'</t>
+  </si>
+  <si>
+    <t>'memorize'</t>
+  </si>
+  <si>
+    <t>'someplace'</t>
+  </si>
+  <si>
+    <t>'galore'</t>
+  </si>
+  <si>
+    <t>'overturns'</t>
+  </si>
+  <si>
+    <t>'payed'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2741,6 +3096,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2778,21 +3139,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3071,7 +3450,7 @@
   <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3081,14 +3460,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
       <c r="G1" t="s">
         <v>579</v>
       </c>
@@ -3109,7 +3488,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7257,7 +7636,7 @@
   <dimension ref="A1:I285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7268,16 +7647,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
       <c r="G1" t="s">
-        <v>586</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -7294,7 +7673,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>587</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -7310,9 +7689,6 @@
       <c r="E3">
         <v>535</v>
       </c>
-      <c r="G3" t="s">
-        <v>588</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7328,7 +7704,7 @@
         <v>376</v>
       </c>
       <c r="G4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7345,7 +7721,7 @@
         <v>295</v>
       </c>
       <c r="G5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7362,7 +7738,7 @@
         <v>198</v>
       </c>
       <c r="G6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7378,6 +7754,9 @@
       <c r="E7">
         <v>172</v>
       </c>
+      <c r="G7" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7393,7 +7772,7 @@
         <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7409,11 +7788,8 @@
       <c r="E9">
         <v>142</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>583</v>
+      <c r="G9" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7429,12 +7805,6 @@
       <c r="E10">
         <v>138</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>582</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7443,44 +7813,38 @@
       <c r="B11">
         <v>95</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>266</v>
       </c>
       <c r="E11">
         <v>106</v>
       </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>580</v>
-      </c>
-      <c r="I11" t="s">
-        <v>581</v>
+      <c r="G11" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B12">
         <v>90</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E12">
         <v>78</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>891</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B13">
@@ -7493,14 +7857,14 @@
         <v>72</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>893</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B14">
@@ -7513,10 +7877,13 @@
         <v>63</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>892</v>
+        <v>580</v>
+      </c>
+      <c r="I14" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7526,11 +7893,17 @@
       <c r="B15">
         <v>39</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>270</v>
       </c>
       <c r="E15">
         <v>62</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -7546,22 +7919,34 @@
       <c r="E16">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>277</v>
       </c>
       <c r="B17">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E17">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -7575,7 +7960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>276</v>
       </c>
@@ -7589,7 +7974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>279</v>
       </c>
@@ -7603,7 +7988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>596</v>
       </c>
@@ -7617,7 +8002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>597</v>
       </c>
@@ -7631,7 +8016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>271</v>
       </c>
@@ -7645,8 +8030,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B24">
@@ -7659,7 +8044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -7673,7 +8058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>405</v>
       </c>
@@ -7687,35 +8072,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>598</v>
       </c>
       <c r="B27">
         <v>16</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>283</v>
       </c>
       <c r="E27">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>599</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>284</v>
       </c>
       <c r="E28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>600</v>
       </c>
@@ -7729,21 +8114,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>601</v>
       </c>
       <c r="B30">
         <v>13</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>286</v>
       </c>
       <c r="E30">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>602</v>
       </c>
@@ -7757,7 +8142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -7786,13 +8171,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B34">
         <v>11</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>290</v>
       </c>
       <c r="E34">
@@ -7820,7 +8205,7 @@
       <c r="B36">
         <v>10</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>292</v>
       </c>
       <c r="E36">
@@ -7842,7 +8227,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B38">
@@ -7876,7 +8261,7 @@
       <c r="B40">
         <v>8</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E40">
@@ -7884,7 +8269,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B41">
@@ -7912,7 +8297,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B43">
@@ -8066,7 +8451,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B54">
@@ -8100,7 +8485,7 @@
       <c r="B56">
         <v>5</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="2" t="s">
         <v>316</v>
       </c>
       <c r="E56">
@@ -8184,7 +8569,7 @@
       <c r="B62">
         <v>5</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>321</v>
       </c>
       <c r="E62">
@@ -8220,7 +8605,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="2" t="s">
         <v>534</v>
       </c>
       <c r="B65">
@@ -8254,7 +8639,7 @@
       <c r="B67">
         <v>4</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="2" t="s">
         <v>326</v>
       </c>
       <c r="E67">
@@ -8268,7 +8653,7 @@
       <c r="B68">
         <v>4</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E68">
@@ -8282,7 +8667,7 @@
       <c r="B69">
         <v>4</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="2" t="s">
         <v>331</v>
       </c>
       <c r="E69">
@@ -8304,7 +8689,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B71">
@@ -8360,7 +8745,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B75">
@@ -8388,7 +8773,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B77">
@@ -8486,7 +8871,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B84">
@@ -8626,13 +9011,13 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="2" t="s">
         <v>503</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="2" t="s">
         <v>363</v>
       </c>
       <c r="E94">
@@ -8660,7 +9045,7 @@
       <c r="B96">
         <v>2</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E96">
@@ -8682,7 +9067,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="2" t="s">
         <v>649</v>
       </c>
       <c r="B98">
@@ -8758,7 +9143,7 @@
       <c r="B103">
         <v>2</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E103">
@@ -8808,7 +9193,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="2" t="s">
         <v>657</v>
       </c>
       <c r="B107">
@@ -8836,7 +9221,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B109">
@@ -8870,7 +9255,7 @@
       <c r="B111">
         <v>2</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E111">
@@ -8906,7 +9291,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="2" t="s">
         <v>662</v>
       </c>
       <c r="B114">
@@ -8948,7 +9333,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="2" t="s">
         <v>664</v>
       </c>
       <c r="B117">
@@ -8968,7 +9353,7 @@
       <c r="B118">
         <v>1</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="2" t="s">
         <v>388</v>
       </c>
       <c r="E118">
@@ -8990,7 +9375,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="2" t="s">
         <v>667</v>
       </c>
       <c r="B120">
@@ -9024,7 +9409,7 @@
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="2" t="s">
         <v>393</v>
       </c>
       <c r="E122">
@@ -9150,7 +9535,7 @@
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="2" t="s">
         <v>403</v>
       </c>
       <c r="E131">
@@ -9200,13 +9585,13 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="2" t="s">
         <v>682</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E135">
@@ -9214,7 +9599,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="2" t="s">
         <v>487</v>
       </c>
       <c r="B136">
@@ -9298,7 +9683,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="2" t="s">
         <v>688</v>
       </c>
       <c r="B142">
@@ -9340,7 +9725,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="2" t="s">
         <v>691</v>
       </c>
       <c r="B145">
@@ -9396,7 +9781,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="2" t="s">
         <v>695</v>
       </c>
       <c r="B149">
@@ -9438,7 +9823,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B152">
@@ -9452,7 +9837,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="2" t="s">
         <v>451</v>
       </c>
       <c r="B153">
@@ -9508,7 +9893,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B157">
@@ -9648,7 +10033,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="2" t="s">
         <v>710</v>
       </c>
       <c r="B167">
@@ -9718,7 +10103,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="2" t="s">
         <v>567</v>
       </c>
       <c r="B172">
@@ -9738,7 +10123,7 @@
       <c r="B173">
         <v>1</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="2" t="s">
         <v>451</v>
       </c>
       <c r="E173">
@@ -10046,7 +10431,7 @@
       <c r="B195">
         <v>1</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="D195" s="2" t="s">
         <v>477</v>
       </c>
       <c r="E195">
@@ -10074,7 +10459,7 @@
       <c r="B197">
         <v>1</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="D197" s="2" t="s">
         <v>481</v>
       </c>
       <c r="E197">
@@ -10144,7 +10529,7 @@
       <c r="B202">
         <v>1</v>
       </c>
-      <c r="D202" s="4" t="s">
+      <c r="D202" s="2" t="s">
         <v>487</v>
       </c>
       <c r="E202">
@@ -10340,7 +10725,7 @@
       <c r="B216">
         <v>1</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D216" s="2" t="s">
         <v>503</v>
       </c>
       <c r="E216">
@@ -10494,7 +10879,7 @@
       <c r="B227">
         <v>1</v>
       </c>
-      <c r="D227" s="4" t="s">
+      <c r="D227" s="2" t="s">
         <v>515</v>
       </c>
       <c r="E227">
@@ -10516,7 +10901,7 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D229" s="4" t="s">
+      <c r="D229" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E229">
@@ -10524,7 +10909,7 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D230" s="4" t="s">
+      <c r="D230" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E230">
@@ -10652,7 +11037,7 @@
       </c>
     </row>
     <row r="246" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D246" s="4" t="s">
+      <c r="D246" s="2" t="s">
         <v>534</v>
       </c>
       <c r="E246">
@@ -10716,7 +11101,7 @@
       </c>
     </row>
     <row r="254" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D254" s="4" t="s">
+      <c r="D254" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E254">
@@ -10820,7 +11205,7 @@
       </c>
     </row>
     <row r="267" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D267" s="4" t="s">
+      <c r="D267" s="2" t="s">
         <v>561</v>
       </c>
       <c r="E267">
@@ -10940,7 +11325,7 @@
       </c>
     </row>
     <row r="282" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D282" s="4" t="s">
+      <c r="D282" s="2" t="s">
         <v>575</v>
       </c>
       <c r="E282">
@@ -10970,6 +11355,1377 @@
       <c r="E285">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE8C2F7-E670-4EF4-8DCE-12DFE7AEC9E0}">
+  <dimension ref="A1:G282"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="G1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="G11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="5" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="5" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="5" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="5" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="5" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="5" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="5" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="5" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="5" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="5" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="5" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="5" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D254" s="2"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D267" s="2"/>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D282" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
